--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail15 Features.xlsx
@@ -1466,7 +1466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,29 +1477,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1520,115 +1518,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1645,72 +1633,66 @@
         <v>2.458347852048085e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.665222943030837</v>
+        <v>1.130461583803322e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.03614010470847306</v>
+        <v>2.008120173858064e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.130461583803322e-06</v>
+        <v>-0.0721554356250515</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.008120173858064e-06</v>
+        <v>0.1400806220246319</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0721554356250515</v>
+        <v>0.02477785495099489</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1400806220246319</v>
+        <v>1.908560151323428</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02477785495099489</v>
+        <v>1.768787761688365</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.91761842789107</v>
+        <v>4.171548610537447</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.768787761688365</v>
+        <v>4.076577438569025e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.171548610537447</v>
+        <v>317243962.6668356</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.076577438569025e-16</v>
+        <v>3.783123645065808e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>317243962.6668356</v>
+        <v>41.02819665872166</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.783123645065808e-07</v>
+        <v>0.000228755683163626</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>41.02819665872166</v>
+        <v>12.3248176653497</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000228755683163626</v>
+        <v>1.118242687902234</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.3248176653497</v>
+        <v>0.03474824687722104</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.118242687902234</v>
+        <v>2.466032080724806</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03474824687722104</v>
+        <v>0.9589481813630611</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.466032080724806</v>
+        <v>1.330889793473221</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9589481813630611</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.330889793473221</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5490838762913586</v>
       </c>
     </row>
@@ -1725,72 +1707,66 @@
         <v>2.274257874462972e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4507935582400167</v>
+        <v>9.45104536830512e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.684531065296393</v>
+        <v>1.992277308442638e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.45104536830512e-07</v>
+        <v>-0.06213756815700104</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.992277308442638e-06</v>
+        <v>0.119326276253255</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06213756815700104</v>
+        <v>0.01806932472649626</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.119326276253255</v>
+        <v>1.860590966650659</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01806932472649626</v>
+        <v>1.75192829928824</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.845576856031558</v>
+        <v>3.849186348670791</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.75192829928824</v>
+        <v>4.787981241969416e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.849186348670791</v>
+        <v>272403591.6962124</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.787981241969416e-16</v>
+        <v>4.362108270004358e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>272403591.6962124</v>
+        <v>35.52860039743682</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.362108270004358e-07</v>
+        <v>0.0002426413912741913</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>35.52860039743682</v>
+        <v>14.50465198176363</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002426413912741913</v>
+        <v>0.9638936684949985</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>14.50465198176363</v>
+        <v>0.05104809190287714</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9638936684949985</v>
+        <v>2.257754969395036</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.05104809190287714</v>
+        <v>0.9566051993865432</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.257754969395036</v>
+        <v>1.460445621542788</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9566051993865432</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.460445621542788</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.509399869234973</v>
       </c>
     </row>
@@ -1805,72 +1781,66 @@
         <v>2.143414520193567e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3366994209844588</v>
+        <v>8.181065273051753e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.059470385604502</v>
+        <v>1.979560147507598e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.181065273051753e-07</v>
+        <v>-0.05342502658154728</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.979560147507598e-06</v>
+        <v>0.1094756681056338</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05342502658154728</v>
+        <v>0.01482303118209071</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1094756681056338</v>
+        <v>1.843407478887123</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01482303118209071</v>
+        <v>1.756101793951172</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.820762487930008</v>
+        <v>4.164716922063743</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.756101793951172</v>
+        <v>4.751134638139918e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.164716922063743</v>
+        <v>283405259.0313509</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.751134638139918e-16</v>
+        <v>4.168185422203845e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>283405259.0313509</v>
+        <v>38.1604201501266</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.168185422203845e-07</v>
+        <v>0.0002010377955496826</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>38.1604201501266</v>
+        <v>12.92980829512739</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002010377955496826</v>
+        <v>1.104483742935464</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.92980829512739</v>
+        <v>0.03360948711012227</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.104483742935464</v>
+        <v>2.708556160614409</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03360948711012227</v>
+        <v>0.955903881382838</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.708556160614409</v>
+        <v>1.593200351109984</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.955903881382838</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.593200351109984</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4046377160894209</v>
       </c>
     </row>
@@ -1885,72 +1855,66 @@
         <v>2.042283891984251e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2778539042131348</v>
+        <v>7.335337970946271e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.260437966876064</v>
+        <v>1.969148023461034e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.335337970946271e-07</v>
+        <v>-0.04634115194135526</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.969148023461034e-06</v>
+        <v>0.1085087308429804</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04634115194135526</v>
+        <v>0.01391224393926485</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1085087308429804</v>
+        <v>1.834320906995168</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01391224393926485</v>
+        <v>1.783021474668152</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.804098403309023</v>
+        <v>4.379700362086476</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.783021474668152</v>
+        <v>4.957906458001669e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.379700362086476</v>
+        <v>274904203.7630694</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.957906458001669e-16</v>
+        <v>4.291162739930723e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>274904203.7630694</v>
+        <v>37.46804995547305</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.291162739930723e-07</v>
+        <v>0.0001611451388886559</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>37.46804995547305</v>
+        <v>9.065329493549932</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001611451388886559</v>
+        <v>1.58348894900263</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.065329493549932</v>
+        <v>0.01324293955381405</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.58348894900263</v>
+        <v>3.099015984931329</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01324293955381405</v>
+        <v>0.9566369940165554</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.099015984931329</v>
+        <v>1.578137912010851</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9566369940165554</v>
+        <v>15</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.578137912010851</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2755117747159979</v>
       </c>
     </row>
@@ -1965,72 +1929,66 @@
         <v>1.958692675256648e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2458562191625804</v>
+        <v>6.708568961925591e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.373423050281551</v>
+        <v>1.960512338587618e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.708568961925591e-07</v>
+        <v>-0.04010375830835389</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.960512338587618e-06</v>
+        <v>0.1109347689029365</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04010375830835389</v>
+        <v>0.01390788765557346</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1109347689029365</v>
+        <v>1.815779907084578</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01390788765557346</v>
+        <v>1.778797198638198</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.780495823585966</v>
+        <v>4.870724601739152</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.778797198638198</v>
+        <v>6.177706990810112e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.870724601739152</v>
+        <v>222275435.4598737</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.177706990810112e-16</v>
+        <v>5.282031001667006e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>222275435.4598737</v>
+        <v>30.52180724522218</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.282031001667006e-07</v>
+        <v>0.0001486889899653122</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>30.52180724522218</v>
+        <v>8.223505629868606</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001486889899653122</v>
+        <v>1.605977456689369</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.223505629868606</v>
+        <v>0.01005524830327474</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.605977456689369</v>
+        <v>3.126220275886081</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01005524830327474</v>
+        <v>0.9553761773817716</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.126220275886081</v>
+        <v>1.561551751330985</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9553761773817716</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.561551751330985</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2211756506633259</v>
       </c>
     </row>
@@ -2045,72 +2003,66 @@
         <v>1.88820883600756e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.228356266208005</v>
+        <v>6.199701045602085e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.430336662898628</v>
+        <v>1.953369354677071e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.199701045602085e-07</v>
+        <v>-0.03418928901389132</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.953369354677071e-06</v>
+        <v>0.1144489781298982</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03418928901389132</v>
+        <v>0.01426164178267985</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1144489781298982</v>
+        <v>1.787991191239283</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01426164178267985</v>
+        <v>1.78893721576472</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.738177809037808</v>
+        <v>4.815199563933119</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.78893721576472</v>
+        <v>6.321001203707519e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.815199563933119</v>
+        <v>219627325.2865119</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.321001203707519e-16</v>
+        <v>5.308958731731796e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>219627325.2865119</v>
+        <v>30.49008381432896</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.308958731731796e-07</v>
+        <v>0.0001433179604908854</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>30.49008381432896</v>
+        <v>9.540685142582861</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001433179604908854</v>
+        <v>1.221511955622756</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.540685142582861</v>
+        <v>0.01304547048726245</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.221511955622756</v>
+        <v>3.007111479002031</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01304547048726245</v>
+        <v>0.9529210001025894</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.007111479002031</v>
+        <v>1.615512264740681</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9529210001025894</v>
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.615512264740681</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2164845541249194</v>
       </c>
     </row>
@@ -2125,72 +2077,66 @@
         <v>1.828825569167036e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.217441947635225</v>
+        <v>5.782678510595883e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.450542848534238</v>
+        <v>1.947573622202123e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.782678510595883e-07</v>
+        <v>-0.02810107707674656</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.947573622202123e-06</v>
+        <v>0.1193420329366848</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02810107707674656</v>
+        <v>0.01502629932965692</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1193420329366848</v>
+        <v>1.775281126005968</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01502629932965692</v>
+        <v>1.789271877238332</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.715538541850282</v>
+        <v>4.513793061099763</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.789271877238332</v>
+        <v>7.193349569031032e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.513793061099763</v>
+        <v>190440661.7314193</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.193349569031032e-16</v>
+        <v>6.093602704852218e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>190440661.7314193</v>
+        <v>26.08858531393057</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.093602704852218e-07</v>
+        <v>0.000157277125200703</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>26.08858531393057</v>
+        <v>11.31823664072741</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000157277125200703</v>
+        <v>1.123267081914817</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.31823664072741</v>
+        <v>0.0201475898885764</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.123267081914817</v>
+        <v>2.755408468319475</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0201475898885764</v>
+        <v>0.9538274661241546</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.755408468319475</v>
+        <v>1.663847223189537</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9538274661241546</v>
+        <v>16</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.663847223189537</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2234723335685165</v>
       </c>
     </row>
@@ -2205,72 +2151,66 @@
         <v>1.779930121548547e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2063972620317731</v>
+        <v>5.438483829021805e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.451976331194935</v>
+        <v>1.943091441137364e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.438483829021805e-07</v>
+        <v>-0.02144486605638906</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.943091441137364e-06</v>
+        <v>0.1258852332756307</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02144486605638906</v>
+        <v>0.01630010549564926</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1258852332756307</v>
+        <v>1.760534134359361</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01630010549564926</v>
+        <v>1.800689585881541</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.697360607028431</v>
+        <v>4.121308894879817</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.800689585881541</v>
+        <v>8.822949591986304e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.121308894879817</v>
+        <v>154832136.7111559</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>8.822949591986304e-16</v>
+        <v>7.435418511819065e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>154832136.7111559</v>
+        <v>21.15124872671803</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.435418511819065e-07</v>
+        <v>0.000172049593649647</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>21.15124872671803</v>
+        <v>10.61474801639948</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000172049593649647</v>
+        <v>1.229118041131097</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.61474801639948</v>
+        <v>0.01938532243679482</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.229118041131097</v>
+        <v>2.82475493261295</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01938532243679482</v>
+        <v>0.9530080850415279</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.82475493261295</v>
+        <v>1.649139101068704</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9530080850415279</v>
+        <v>16</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.649139101068704</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1999513884052403</v>
       </c>
     </row>
@@ -2285,72 +2225,66 @@
         <v>1.742559022517633e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1918469105344775</v>
+        <v>5.151905077335874e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.451172701304055</v>
+        <v>1.939938982949872e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.151905077335874e-07</v>
+        <v>-0.01428675695210794</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.939938982949872e-06</v>
+        <v>0.1333578317518438</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01428675695210794</v>
+        <v>0.01798116539698008</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1333578317518438</v>
+        <v>1.721536272242451</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01798116539698008</v>
+        <v>1.7789770518395</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.650928497268066</v>
+        <v>4.133405535786869</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.7789770518395</v>
+        <v>8.771383453970192e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.133405535786869</v>
+        <v>154374352.3231828</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>8.771383453970192e-16</v>
+        <v>7.305601032393793e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>154374352.3231828</v>
+        <v>20.90347042473128</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.305601032393793e-07</v>
+        <v>0.0001632945386915052</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>20.90347042473128</v>
+        <v>9.187992054780437</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001632945386915052</v>
+        <v>1.380435164009915</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.187992054780437</v>
+        <v>0.01378519399390594</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.380435164009915</v>
+        <v>2.950559801741224</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01378519399390594</v>
+        <v>0.9501929465259188</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.950559801741224</v>
+        <v>1.700627995945545</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9501929465259188</v>
+        <v>17</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.700627995945545</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1890047533993254</v>
       </c>
     </row>
@@ -2365,72 +2299,66 @@
         <v>1.718535537882601e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1767258518573472</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.456438971721671</v>
+        <v>1.938077097983557e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>-0.007336554927522091</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.938077097983557e-06</v>
+        <v>0.1396437141533107</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.007336554927522091</v>
+        <v>0.01954858730163024</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1396437141533107</v>
+        <v>1.643038976910196</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01954858730163024</v>
+        <v>1.591722820010715</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.565011539406719</v>
+        <v>5.147885929347522</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.591722820010715</v>
+        <v>1.62935282539195e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.147885929347522</v>
+        <v>84606864.36311518</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.62935282539195e-15</v>
+        <v>1.292691839168705e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>84606864.36311518</v>
+        <v>11.66343135678511</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.292691839168705e-06</v>
+        <v>0.000140652395215724</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>11.66343135678511</v>
+        <v>8.399779689853201</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000140652395215724</v>
+        <v>1.333146346856623</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.399779689853201</v>
+        <v>0.009923912429130993</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.333146346856623</v>
+        <v>2.992884986529585</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009923912429130993</v>
+        <v>0.9421993653867339</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.992884986529585</v>
+        <v>1.769617994201712</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9421993653867339</v>
+        <v>17</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.769617994201712</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2036761505095248</v>
       </c>
     </row>
@@ -2445,72 +2373,66 @@
         <v>1.708431566487764e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1681932892797372</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.462364629489723</v>
+        <v>1.93734124310522e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>-0.001394314817535487</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.93734124310522e-06</v>
+        <v>0.1430601753522673</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.001394314817535487</v>
+        <v>0.02046423392922377</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1430601753522673</v>
+        <v>1.61057085695399</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02046423392922377</v>
+        <v>1.572540327056522</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.527616891396357</v>
+        <v>4.239921649754722</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.572540327056522</v>
+        <v>2.463747435962631e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.239921649754722</v>
+        <v>57509871.48826935</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.463747435962631e-15</v>
+        <v>1.878511613081753e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>57509871.48826935</v>
+        <v>8.148562098434438</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.878511613081753e-06</v>
+        <v>0.0001464989245185411</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8.148562098434438</v>
+        <v>8.492246661337926</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001464989245185411</v>
+        <v>1.30562499411859</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.492246661337926</v>
+        <v>0.01056524655495692</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.30562499411859</v>
+        <v>2.9141189980097</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01056524655495692</v>
+        <v>0.9388099029818215</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.9141189980097</v>
+        <v>1.78219180235494</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9388099029818215</v>
+        <v>17</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.78219180235494</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1889568611661376</v>
       </c>
     </row>
@@ -2525,72 +2447,66 @@
         <v>1.711461164594335e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1713381941928142</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.45916277057727</v>
+        <v>1.937549361897834e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>0.003626540740618703</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.937549361897834e-06</v>
+        <v>0.1441801329097501</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.003626540740618703</v>
+        <v>0.02079883812005034</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1441801329097501</v>
+        <v>1.552049029872471</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02079883812005034</v>
+        <v>1.455415857494439</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.467844777431273</v>
+        <v>4.452173433120905</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.455415857494439</v>
+        <v>3.733115780570642e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.452173433120905</v>
+        <v>39398395.87352476</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.733115780570642e-15</v>
+        <v>2.662470431272767e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>39398395.87352476</v>
+        <v>5.794667737611905</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.662470431272767e-06</v>
+        <v>0.0001619563430260793</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.794667737611905</v>
+        <v>8.996718865286795</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001619563430260793</v>
+        <v>1.279964899894749</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.996718865286795</v>
+        <v>0.01310890031828503</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.279964899894749</v>
+        <v>2.812054366870836</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01310890031828503</v>
+        <v>0.9362118482943169</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.812054366870836</v>
+        <v>1.813482350909602</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9362118482943169</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.813482350909602</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1650683745283527</v>
       </c>
     </row>
@@ -2605,72 +2521,66 @@
         <v>1.724935834542034e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1850256544959103</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.44516374625092</v>
+        <v>1.938481919568893e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>0.006889606060554554</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.938481919568893e-06</v>
+        <v>0.1429016545241928</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.006889606060554554</v>
+        <v>0.02046758696849018</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1429016545241928</v>
+        <v>1.532867981984315</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02046758696849018</v>
+        <v>1.418433343423995</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.451431539363876</v>
+        <v>3.825960615231201</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.418433343423995</v>
+        <v>6.209136922948672e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.825960615231201</v>
+        <v>24617117.99086986</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.209136922948672e-15</v>
+        <v>4.230726682545183e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>24617117.99086986</v>
+        <v>3.762752486826273</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.230726682545183e-06</v>
+        <v>0.0001733977422724674</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3.762752486826273</v>
+        <v>9.796392620067232</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001733977422724674</v>
+        <v>1.247068146598415</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.796392620067232</v>
+        <v>0.01664086139820265</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.247068146598415</v>
+        <v>2.770375107195837</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01664086139820265</v>
+        <v>0.934863068991201</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.770375107195837</v>
+        <v>1.83161959670688</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.934863068991201</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.83161959670688</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1527124975449666</v>
       </c>
     </row>
@@ -2685,72 +2595,66 @@
         <v>1.743830637602726e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2014092935638888</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.431771727594878</v>
+        <v>1.939835657738234e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>0.00851684763224359</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.939835657738234e-06</v>
+        <v>0.140713131688555</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.00851684763224359</v>
+        <v>0.01987208333554074</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.140713131688555</v>
+        <v>1.510175742391402</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01987208333554074</v>
+        <v>1.425301021261162</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.424219256297652</v>
+        <v>3.649893110749259</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.425301021261162</v>
+        <v>6.822631811735152e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.649893110749259</v>
+        <v>23943685.11450773</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.822631811735152e-15</v>
+        <v>4.37340445772891e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>23943685.11450773</v>
+        <v>3.911415205621023</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.37340445772891e-06</v>
+        <v>0.0001681453564979211</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3.911415205621023</v>
+        <v>11.48617680284936</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001681453564979211</v>
+        <v>1.112894611297304</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.48617680284936</v>
+        <v>0.02218379647870062</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.112894611297304</v>
+        <v>2.776767917516178</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02218379647870062</v>
+        <v>0.9361905676275374</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.776767917516178</v>
+        <v>1.823107170494093</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9361905676275374</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.823107170494093</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1620367429349139</v>
       </c>
     </row>
@@ -2765,72 +2669,66 @@
         <v>1.764652461770055e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2144769240032885</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.428082701561891</v>
+        <v>1.941419465022879e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>0.009458706838176151</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.941419465022879e-06</v>
+        <v>0.1385202465879768</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.009458706838176151</v>
+        <v>0.01927679007245716</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1385202465879768</v>
+        <v>1.496816021177112</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01927679007245716</v>
+        <v>1.40492511223556</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.407348070753426</v>
+        <v>3.730571414096904</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.40492511223556</v>
+        <v>6.530726718782328e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.730571414096904</v>
+        <v>25432083.25963657</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.530726718782328e-15</v>
+        <v>4.100621253882669e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>25432083.25963657</v>
+        <v>4.224014343846234</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.100621253882669e-06</v>
+        <v>0.0001543500987696054</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.224014343846234</v>
+        <v>12.33574952991734</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001543500987696054</v>
+        <v>1.090444800798907</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.33574952991734</v>
+        <v>0.02348756511619212</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.090444800798907</v>
+        <v>2.875631716365483</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02348756511619212</v>
+        <v>0.9341254659294385</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.875631716365483</v>
+        <v>1.837007829145115</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9341254659294385</v>
+        <v>20</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.837007829145115</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1788603472240236</v>
       </c>
     </row>
@@ -2845,72 +2743,66 @@
         <v>1.786246831117281e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2227400399913437</v>
+        <v>5.078316054418342e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.434834865717322</v>
+        <v>1.943172954900558e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.078316054418342e-07</v>
+        <v>0.01033473037580493</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.943172954900558e-06</v>
+        <v>0.1363894036518838</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.01033473037580493</v>
+        <v>0.01870841513169148</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1363894036518838</v>
+        <v>1.500170134579786</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01870841513169148</v>
+        <v>1.391907189689654</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.405836221844643</v>
+        <v>3.856734651892541</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.391907189689654</v>
+        <v>6.110443141040753e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.856734651892541</v>
+        <v>27452722.1891581</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.110443141040753e-15</v>
+        <v>3.807459483107648e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>27452722.1891581</v>
+        <v>4.605147422797989</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.807459483107648e-06</v>
+        <v>0.000155499547523421</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>4.605147422797989</v>
+        <v>9.781042661122219</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000155499547523421</v>
+        <v>1.438807090774437</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.781042661122219</v>
+        <v>0.01487645441837741</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.438807090774437</v>
+        <v>3.114810371561961</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01487645441837741</v>
+        <v>0.9345578969149024</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.114810371561961</v>
+        <v>1.842483099892483</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9345578969149024</v>
+        <v>20</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.842483099892483</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1677868237154696</v>
       </c>
     </row>
@@ -3287,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415650822507992</v>
+        <v>1.410649549433855</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.294881550633086</v>
@@ -3376,7 +3268,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.397235259204439</v>
+        <v>1.390811030942203</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.172477671616941</v>
@@ -3465,7 +3357,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.382137065726002</v>
+        <v>1.369633860817963</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.295192943979612</v>
@@ -3554,7 +3446,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.385388302914311</v>
+        <v>1.366460770907851</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.292459391057531</v>
@@ -3643,7 +3535,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.389307652315384</v>
+        <v>1.368069910641219</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.188097623857231</v>
@@ -3732,7 +3624,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.399812686882949</v>
+        <v>1.377602693815141</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.283395020539834</v>
@@ -3821,7 +3713,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.438579773560088</v>
+        <v>1.406825317953387</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.207814827921714</v>
@@ -3910,7 +3802,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.448566991501714</v>
+        <v>1.417288793597735</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.287885650217752</v>
@@ -3999,7 +3891,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.456258259930823</v>
+        <v>1.422996887831401</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.281921021520772</v>
@@ -4088,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.441423427690439</v>
+        <v>1.412454938918181</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.318477241693544</v>
@@ -4177,7 +4069,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.44428205482266</v>
+        <v>1.416693035710066</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.296893306362797</v>
@@ -4266,7 +4158,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.441829779053371</v>
+        <v>1.413384758908587</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.28673470054123</v>
@@ -4355,7 +4247,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.448785814191352</v>
+        <v>1.417849001992969</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.304008005920733</v>
@@ -4444,7 +4336,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.454180410770846</v>
+        <v>1.423195232548648</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.330593970809439</v>
@@ -4533,7 +4425,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45400228462058</v>
+        <v>1.422640400137263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.28469868097093</v>
@@ -4622,7 +4514,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.466939945611024</v>
+        <v>1.430888317799514</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.037441370019569</v>
@@ -4711,7 +4603,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.511625042951734</v>
+        <v>1.471435883277016</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.441170189468552</v>
@@ -4800,7 +4692,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.508490559023915</v>
+        <v>1.472371580424923</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.403631047839621</v>
@@ -4889,7 +4781,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.533083845976583</v>
+        <v>1.496225273476114</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.525818076591912</v>
@@ -4978,7 +4870,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538165528179047</v>
+        <v>1.501009057383077</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.42007874314088</v>
@@ -5067,7 +4959,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538868986954091</v>
+        <v>1.49901695575805</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.530524086533402</v>
@@ -5156,7 +5048,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532953818735515</v>
+        <v>1.498987207079964</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.539443869605242</v>
@@ -5245,7 +5137,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.51317955053958</v>
+        <v>1.485810822360397</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.544970040230147</v>
@@ -5334,7 +5226,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506187678900734</v>
+        <v>1.479786258104913</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.248692576473807</v>
@@ -5423,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.516115712766231</v>
+        <v>1.487125121415207</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.427261042895322</v>
@@ -5512,7 +5404,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526785201327258</v>
+        <v>1.48973526899982</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.529899786526189</v>
@@ -5601,7 +5493,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.528488188235946</v>
+        <v>1.492018326367864</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.452268593411265</v>
@@ -5690,7 +5582,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.518206003605918</v>
+        <v>1.48764348010386</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.293476737362925</v>
@@ -5779,7 +5671,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.524112710681089</v>
+        <v>1.488613608353093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.384925052251041</v>
@@ -5868,7 +5760,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.508287277958581</v>
+        <v>1.460353096325119</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.302606132646337</v>
@@ -5957,7 +5849,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488598863798639</v>
+        <v>1.449391693446301</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.544244170671151</v>
@@ -6046,7 +5938,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498796755729905</v>
+        <v>1.453206609871823</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.297372535078991</v>
@@ -6135,7 +6027,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.508717673589314</v>
+        <v>1.461813637030774</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.510910257602565</v>
@@ -6224,7 +6116,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.476750509479275</v>
+        <v>1.439268165596625</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.560298825548212</v>
@@ -6313,7 +6205,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.464182954203445</v>
+        <v>1.431133363590433</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.579511572575914</v>
@@ -6402,7 +6294,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.457238979825717</v>
+        <v>1.426696096385087</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.521271775486561</v>
@@ -6491,7 +6383,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.461637493134427</v>
+        <v>1.426537328180368</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.554991505282365</v>
@@ -6580,7 +6472,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.453206756062002</v>
+        <v>1.410861242815746</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.602318351836677</v>
@@ -6669,7 +6561,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.446006175179435</v>
+        <v>1.399634858992962</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.617867999457465</v>
@@ -6758,7 +6650,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.437434043656082</v>
+        <v>1.38907260906138</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.524009803248121</v>
@@ -6847,7 +6739,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.420807555650841</v>
+        <v>1.37992860104665</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.621437566684138</v>
@@ -6936,7 +6828,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.415217680812178</v>
+        <v>1.37169861492185</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.607301854833795</v>
@@ -7025,7 +6917,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.422984257698186</v>
+        <v>1.376425467478049</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.594444617589114</v>
@@ -7114,7 +7006,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.424228036233061</v>
+        <v>1.37714091792238</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.581571990617209</v>
@@ -7203,7 +7095,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.446017145973203</v>
+        <v>1.40040126260673</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.436887489582136</v>
@@ -7292,7 +7184,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.441236016500205</v>
+        <v>1.397696987019881</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.717738664473147</v>
@@ -7381,7 +7273,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.444532752746609</v>
+        <v>1.401126010290311</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.589578090540092</v>
@@ -7470,7 +7362,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.453696398394551</v>
+        <v>1.410087389955897</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.476048260691082</v>
@@ -7559,7 +7451,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.473708618899509</v>
+        <v>1.425404700399742</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.550231711340764</v>
@@ -7648,7 +7540,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.486440587781411</v>
+        <v>1.432747842876294</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.650688873459043</v>
@@ -7737,7 +7629,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.494015816000975</v>
+        <v>1.43647254792766</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.582989988956374</v>
@@ -7826,7 +7718,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.472355732540352</v>
+        <v>1.422298334708754</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.448186626610835</v>
@@ -7915,7 +7807,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.484571609882278</v>
+        <v>1.441039029515541</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.408789448300338</v>
@@ -8004,7 +7896,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.50135256640098</v>
+        <v>1.456651009067528</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.688424755535477</v>
@@ -8093,7 +7985,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.51460711388385</v>
+        <v>1.466119398532531</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.60565022156407</v>
@@ -8182,7 +8074,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.526176347188665</v>
+        <v>1.476559397996947</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.414591656675986</v>
@@ -8271,7 +8163,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.53681725271257</v>
+        <v>1.492549239059839</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.68537647532621</v>
@@ -8360,7 +8252,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.541676650374382</v>
+        <v>1.496593811780922</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.76519652026658</v>
@@ -8449,7 +8341,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.540467843671676</v>
+        <v>1.499439700269882</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.783397625951499</v>
@@ -8538,7 +8430,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.490950504362566</v>
+        <v>1.461744148820737</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.394964128060455</v>
@@ -8627,7 +8519,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.475193441563353</v>
+        <v>1.454885258330435</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.475192731489444</v>
@@ -8913,7 +8805,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.557130043171587</v>
+        <v>1.542955002115182</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.893814831586655</v>
@@ -9002,7 +8894,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540307178296072</v>
+        <v>1.525980557506198</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.624706956392473</v>
@@ -9091,7 +8983,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523267165068879</v>
+        <v>1.507052547199819</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.741964001228914</v>
@@ -9180,7 +9072,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524056932180727</v>
+        <v>1.510002570396189</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.777238931319099</v>
@@ -9269,7 +9161,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.52051005190014</v>
+        <v>1.504835731972378</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.759611733502792</v>
@@ -9358,7 +9250,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.522554965486165</v>
+        <v>1.508541842737924</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.675502436255409</v>
@@ -9447,7 +9339,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534067468127214</v>
+        <v>1.518159481482284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.727033274945883</v>
@@ -9536,7 +9428,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.542382409282295</v>
+        <v>1.524403367875152</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.847763632540834</v>
@@ -9625,7 +9517,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.53687181156553</v>
+        <v>1.516398740348801</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.840539407459521</v>
@@ -9714,7 +9606,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.528285480456733</v>
+        <v>1.513781022811932</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.686926030194616</v>
@@ -9803,7 +9695,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535883223530953</v>
+        <v>1.519539076871142</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.696888916932052</v>
@@ -9892,7 +9784,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546289518851778</v>
+        <v>1.522666836069467</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.728519411946734</v>
@@ -9981,7 +9873,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544173352894535</v>
+        <v>1.518479729672878</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.759172638136015</v>
@@ -10070,7 +9962,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566242572170673</v>
+        <v>1.53726353320311</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.760382701471127</v>
@@ -10159,7 +10051,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567456017046015</v>
+        <v>1.539112514499523</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.743955453602242</v>
@@ -10248,7 +10140,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.561043849818892</v>
+        <v>1.531977259010483</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.385432528519864</v>
@@ -10337,7 +10229,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.578922356900981</v>
+        <v>1.548624884227189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.801945604067917</v>
@@ -10426,7 +10318,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597877389905566</v>
+        <v>1.568115510201824</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.902893139438744</v>
@@ -10515,7 +10407,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.601323584735852</v>
+        <v>1.568450832237883</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.004334866034856</v>
@@ -10604,7 +10496,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613640141386772</v>
+        <v>1.584454610635245</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.818500642405478</v>
@@ -10693,7 +10585,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.615463251288171</v>
+        <v>1.579580423329257</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.744407997065713</v>
@@ -10782,7 +10674,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.623288770048239</v>
+        <v>1.585741447655943</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.80828161520196</v>
@@ -10871,7 +10763,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.60694946937829</v>
+        <v>1.57168481940534</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.922286814515056</v>
@@ -10960,7 +10852,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.618752354528296</v>
+        <v>1.572625598646076</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.458297235629107</v>
@@ -11049,7 +10941,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.643231107708901</v>
+        <v>1.594407669469684</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.013194039639546</v>
@@ -11138,7 +11030,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639140777635076</v>
+        <v>1.590106042215822</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.944902833532951</v>
@@ -11227,7 +11119,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632380674505283</v>
+        <v>1.587443898213461</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.969355900552299</v>
@@ -11316,7 +11208,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.63413608584025</v>
+        <v>1.587422489048007</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.038411008374934</v>
@@ -11405,7 +11297,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.637214312386647</v>
+        <v>1.589457982785861</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.915804616068835</v>
@@ -11494,7 +11386,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.648100654143068</v>
+        <v>1.599499318689025</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.703383127822822</v>
@@ -11583,7 +11475,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657676428657274</v>
+        <v>1.606058227757641</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.411556622621608</v>
@@ -11672,7 +11564,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.666339855798023</v>
+        <v>1.614728832696743</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.417477864162046</v>
@@ -11761,7 +11653,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.658314319081601</v>
+        <v>1.609505875533904</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.903337412617816</v>
@@ -11850,7 +11742,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.665708202737782</v>
+        <v>1.614164899056353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.002207003056072</v>
@@ -11939,7 +11831,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647950236448468</v>
+        <v>1.596476783567604</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.155566968772798</v>
@@ -12028,7 +11920,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.639218036203454</v>
+        <v>1.594733327381601</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.957382386453263</v>
@@ -12117,7 +12009,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.61873549252051</v>
+        <v>1.574439043217546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.930158065842168</v>
@@ -12206,7 +12098,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630731226136683</v>
+        <v>1.58173004677183</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.071855295322591</v>
@@ -12295,7 +12187,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.624378477983482</v>
+        <v>1.575832858637209</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.944623925010045</v>
@@ -12384,7 +12276,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626424551656435</v>
+        <v>1.566626514119367</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.990445177172643</v>
@@ -12473,7 +12365,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.625631226587612</v>
+        <v>1.568689139204816</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.117200741391916</v>
@@ -12562,7 +12454,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62638546177386</v>
+        <v>1.56355241967018</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.989325797223626</v>
@@ -12651,7 +12543,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.624441957721418</v>
+        <v>1.563659804998302</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.997951966980714</v>
@@ -12740,7 +12632,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611270008018163</v>
+        <v>1.552082329826667</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.94582374375379</v>
@@ -12829,7 +12721,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609001820843179</v>
+        <v>1.54509431247401</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.185541095158087</v>
@@ -12918,7 +12810,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.600944211758035</v>
+        <v>1.535281713535942</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.123486223764812</v>
@@ -13007,7 +12899,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607802631454495</v>
+        <v>1.537569386601228</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.250259103235491</v>
@@ -13096,7 +12988,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610886118854716</v>
+        <v>1.536887547551705</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.99276324964825</v>
@@ -13185,7 +13077,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614288344403032</v>
+        <v>1.542163010724991</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.985551423483551</v>
@@ -13274,7 +13166,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.629319212152261</v>
+        <v>1.554945484382652</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.04665554949241</v>
@@ -13363,7 +13255,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638444046988404</v>
+        <v>1.55882254779436</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.022547800385653</v>
@@ -13452,7 +13344,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.645089238042539</v>
+        <v>1.565091018324259</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.037593137972705</v>
@@ -13541,7 +13433,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.646806228888618</v>
+        <v>1.572613753427289</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.851618698255876</v>
@@ -13630,7 +13522,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.647938197662469</v>
+        <v>1.577470240567385</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.060240214665423</v>
@@ -13719,7 +13611,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.65355269320515</v>
+        <v>1.587776699888004</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.826712551090953</v>
@@ -13808,7 +13700,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.659550688970392</v>
+        <v>1.591865924311068</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.860813253110296</v>
@@ -13897,7 +13789,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.65393132670131</v>
+        <v>1.596310912429222</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.00464026943325</v>
@@ -13986,7 +13878,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.658842761151532</v>
+        <v>1.594103490338615</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.908150087981327</v>
@@ -14075,7 +13967,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.66959411794345</v>
+        <v>1.605919618538385</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.262704731530761</v>
@@ -14164,7 +14056,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65822300241336</v>
+        <v>1.60897109102761</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.190345988173781</v>
@@ -14253,7 +14145,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.678411953213381</v>
+        <v>1.628332990779234</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.267153826047762</v>
@@ -14539,7 +14431,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.589502223323778</v>
+        <v>1.58292829352962</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.677083318736893</v>
@@ -14628,7 +14520,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.571912997574864</v>
+        <v>1.570088483015739</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.743543899739123</v>
@@ -14717,7 +14609,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.563312946410886</v>
+        <v>1.561479734904267</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.614815473410236</v>
@@ -14806,7 +14698,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.551908902796907</v>
+        <v>1.553535905596998</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.709775294967387</v>
@@ -14895,7 +14787,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.561910710967167</v>
+        <v>1.558696434288628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.73425748555299</v>
@@ -14984,7 +14876,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570010270274603</v>
+        <v>1.563944772545214</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.801910924910612</v>
@@ -15073,7 +14965,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584417068196318</v>
+        <v>1.56818956241194</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.610328463971239</v>
@@ -15162,7 +15054,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602293646597914</v>
+        <v>1.581794181221865</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.790745172809563</v>
@@ -15251,7 +15143,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591042636534277</v>
+        <v>1.572295997564902</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.660778626449788</v>
@@ -15340,7 +15232,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.576827013422955</v>
+        <v>1.560325322604579</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.49874906791973</v>
@@ -15429,7 +15321,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.5846071932343</v>
+        <v>1.564737435816127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.65936294042738</v>
@@ -15518,7 +15410,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.581617920194669</v>
+        <v>1.559492150855674</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.559125902285831</v>
@@ -15607,7 +15499,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.588778806004777</v>
+        <v>1.568200105577748</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.656227357261157</v>
@@ -15696,7 +15588,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.604259992149718</v>
+        <v>1.577343643389733</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.589376998752932</v>
@@ -15785,7 +15677,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609461185817065</v>
+        <v>1.58477713252141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.587717023118813</v>
@@ -15874,7 +15766,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.636064952957633</v>
+        <v>1.596779159933984</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.378323459188708</v>
@@ -15963,7 +15855,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.651037521046504</v>
+        <v>1.602393585089646</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.777817451672968</v>
@@ -16052,7 +15944,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.676235206491132</v>
+        <v>1.624413729959841</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.76859566332587</v>
@@ -16141,7 +16033,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69006599043743</v>
+        <v>1.639550243161045</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.912324971737202</v>
@@ -16230,7 +16122,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.70136039625598</v>
+        <v>1.652884444116647</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.775915663434859</v>
@@ -16319,7 +16211,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.688102749513843</v>
+        <v>1.639140415245939</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.738277376933016</v>
@@ -16408,7 +16300,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.690821356393078</v>
+        <v>1.641628469460932</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.946083615645703</v>
@@ -16497,7 +16389,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68268351541297</v>
+        <v>1.634999855650607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.84517306093905</v>
@@ -16586,7 +16478,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.709613557001332</v>
+        <v>1.648615825054737</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.390113757673918</v>
@@ -16675,7 +16567,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.729425924506642</v>
+        <v>1.6624471584809</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.909886155825684</v>
@@ -16764,7 +16656,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.75229634858121</v>
+        <v>1.678695343177681</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.466695386325124</v>
@@ -16853,7 +16745,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.754519225749714</v>
+        <v>1.682566734977199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.838838207140397</v>
@@ -16942,7 +16834,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.756703359860001</v>
+        <v>1.680499652731565</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.860176840639154</v>
@@ -17031,7 +16923,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.755997340940925</v>
+        <v>1.681014124315271</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.587392200627476</v>
@@ -17120,7 +17012,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.751936262775921</v>
+        <v>1.675855447111973</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.342710743844306</v>
@@ -17209,7 +17101,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.753622902000654</v>
+        <v>1.680644035004883</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.460916555037764</v>
@@ -17298,7 +17190,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.749772743141962</v>
+        <v>1.687198317354605</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.273743757796769</v>
@@ -17387,7 +17279,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.73118601272008</v>
+        <v>1.669150964500259</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.790610675352978</v>
@@ -17476,7 +17368,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.717554689414569</v>
+        <v>1.652267949127101</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.760490410164789</v>
@@ -17565,7 +17457,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.708518810237798</v>
+        <v>1.639949195510438</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.659943415316484</v>
@@ -17654,7 +17546,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.698115051903163</v>
+        <v>1.639450404940027</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.359536629936851</v>
@@ -17743,7 +17635,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.679856469782816</v>
+        <v>1.624438321611994</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.267332531892797</v>
@@ -17832,7 +17724,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.677867526262204</v>
+        <v>1.627053282832592</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.115959982613318</v>
@@ -17921,7 +17813,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.66826716931873</v>
+        <v>1.61642738630782</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.079736491426508</v>
@@ -18010,7 +17902,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.665997938379269</v>
+        <v>1.605972051735945</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.510077356034115</v>
@@ -18099,7 +17991,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.650101983529235</v>
+        <v>1.595486932589331</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.520584700890577</v>
@@ -18188,7 +18080,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640043148789712</v>
+        <v>1.586447973694845</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.573866576136048</v>
@@ -18277,7 +18169,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.640593317001715</v>
+        <v>1.59127456121733</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.470772873928852</v>
@@ -18366,7 +18258,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.631324876052236</v>
+        <v>1.581723302365136</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.316829077323356</v>
@@ -18455,7 +18347,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632752821149813</v>
+        <v>1.585060267670471</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.140114993870086</v>
@@ -18544,7 +18436,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.623394193605645</v>
+        <v>1.573925827655167</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.519408528184444</v>
@@ -18633,7 +18525,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629342204414288</v>
+        <v>1.571982106505092</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.456022912300771</v>
@@ -18722,7 +18614,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639166519882144</v>
+        <v>1.5822728778318</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.534483008883879</v>
@@ -18811,7 +18703,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.645839242206615</v>
+        <v>1.589923480265263</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.248464410885366</v>
@@ -18900,7 +18792,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.642853515385782</v>
+        <v>1.591245133269546</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.334945273297327</v>
@@ -18989,7 +18881,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657841285210606</v>
+        <v>1.598328155240853</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.221694258650968</v>
@@ -19078,7 +18970,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.662349430014048</v>
+        <v>1.607709045551043</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.232380214837598</v>
@@ -19167,7 +19059,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.660736083114935</v>
+        <v>1.604012367535691</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.809495095015438</v>
@@ -19256,7 +19148,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666041807909039</v>
+        <v>1.611061336007035</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.032021477921196</v>
@@ -19345,7 +19237,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.665504194790162</v>
+        <v>1.615980867220026</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.825489587531319</v>
@@ -19434,7 +19326,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677118379600411</v>
+        <v>1.62558939350656</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.11124080767081</v>
@@ -19523,7 +19415,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.667264847924642</v>
+        <v>1.616628801530383</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.981666702652447</v>
@@ -19612,7 +19504,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.659560567347623</v>
+        <v>1.602624215655365</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.856928805917793</v>
@@ -19701,7 +19593,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.666378520765202</v>
+        <v>1.606722302447236</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.618734082102783</v>
@@ -19790,7 +19682,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.662807756672651</v>
+        <v>1.603889712130578</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.695319004832966</v>
@@ -19879,7 +19771,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.666120691892144</v>
+        <v>1.613193207921687</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.757055632497727</v>
@@ -20165,7 +20057,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.67321861459563</v>
+        <v>1.646090802659126</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.294368923106386</v>
@@ -20254,7 +20146,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.653899099214684</v>
+        <v>1.629422458307311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.360139945783791</v>
@@ -20343,7 +20235,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637141397370218</v>
+        <v>1.61237258879887</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.372153806752953</v>
@@ -20432,7 +20324,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620491599427908</v>
+        <v>1.59841502187547</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.191340012413948</v>
@@ -20521,7 +20413,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.620862696369649</v>
+        <v>1.596690049471314</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.148888456083268</v>
@@ -20610,7 +20502,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.617105918131386</v>
+        <v>1.590518795082311</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.170310955377937</v>
@@ -20699,7 +20591,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.615989436752714</v>
+        <v>1.58149118118757</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.254277111237592</v>
@@ -20788,7 +20680,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.626647873792815</v>
+        <v>1.591415304804747</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.238359485509445</v>
@@ -20877,7 +20769,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639656899767888</v>
+        <v>1.60473632643773</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.967992967316852</v>
@@ -20966,7 +20858,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.631810219678989</v>
+        <v>1.594035710736157</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.153420274344281</v>
@@ -21055,7 +20947,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623324429517822</v>
+        <v>1.584409774586677</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.156018649665413</v>
@@ -21144,7 +21036,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626302337560037</v>
+        <v>1.586296357772473</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.055246394966403</v>
@@ -21233,7 +21125,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620400474013111</v>
+        <v>1.582407088757834</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.982119614691425</v>
@@ -21322,7 +21214,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615660811523461</v>
+        <v>1.576012670994876</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.01569395256615</v>
@@ -21411,7 +21303,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.625932799129117</v>
+        <v>1.585994935804241</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.776726179444851</v>
@@ -21500,7 +21392,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639516894324443</v>
+        <v>1.591918385030029</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.604028773529374</v>
@@ -21589,7 +21481,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666088529660378</v>
+        <v>1.612969719243458</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.215740622605045</v>
@@ -21678,7 +21570,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.681047337574345</v>
+        <v>1.631717937804262</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.950172190038472</v>
@@ -21767,7 +21659,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.693360260700844</v>
+        <v>1.640834357841306</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.942410850621648</v>
@@ -21856,7 +21748,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.701769170255171</v>
+        <v>1.645182186930024</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.702778890177054</v>
@@ -21945,7 +21837,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.71387843792465</v>
+        <v>1.658832223171173</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.988023773660001</v>
@@ -22034,7 +21926,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716493672683554</v>
+        <v>1.665683405904538</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.175660313720882</v>
@@ -22123,7 +22015,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.700433303481067</v>
+        <v>1.64828142745401</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.835563799585663</v>
@@ -22212,7 +22104,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.689507871259797</v>
+        <v>1.639873032284918</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.473722718320297</v>
@@ -22301,7 +22193,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.705323098760065</v>
+        <v>1.657030944018727</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.032106156975927</v>
@@ -22390,7 +22282,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.71534112088476</v>
+        <v>1.657853257218874</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.842131954690959</v>
@@ -22479,7 +22371,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.719165708370481</v>
+        <v>1.656598292655923</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.879062567905548</v>
@@ -22568,7 +22460,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.721655498745062</v>
+        <v>1.657633024343458</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.964135779261875</v>
@@ -22657,7 +22549,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721547145892743</v>
+        <v>1.662246393073509</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.931683366508062</v>
@@ -22746,7 +22638,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.724930826691123</v>
+        <v>1.667522314228765</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.972620740845212</v>
@@ -22835,7 +22727,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713498061668442</v>
+        <v>1.656341475608599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.797582675572318</v>
@@ -22924,7 +22816,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.721084207093333</v>
+        <v>1.660744136002504</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.734249219484797</v>
@@ -23013,7 +22905,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.713156662565175</v>
+        <v>1.646362953855417</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.760838615316719</v>
@@ -23102,7 +22994,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.705050483657391</v>
+        <v>1.63709171465683</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.766796363033687</v>
@@ -23191,7 +23083,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.702599305774618</v>
+        <v>1.63549304293987</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.870650867682571</v>
@@ -23280,7 +23172,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681662093150573</v>
+        <v>1.620836956765852</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.453016297602924</v>
@@ -23369,7 +23261,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.673259935260473</v>
+        <v>1.615603103741225</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.327631527663636</v>
@@ -23458,7 +23350,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.666583510196768</v>
+        <v>1.612768422201963</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.768379498626484</v>
@@ -23547,7 +23439,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.649570104695269</v>
+        <v>1.593734048876715</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.779001605618364</v>
@@ -23636,7 +23528,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642603672629039</v>
+        <v>1.583992192380972</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.345297078329834</v>
@@ -23725,7 +23617,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639538453882359</v>
+        <v>1.586690019239469</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.243152151409612</v>
@@ -23814,7 +23706,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.625946690770588</v>
+        <v>1.576646073758279</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.446738754822011</v>
@@ -23903,7 +23795,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.629093357078429</v>
+        <v>1.577811922805322</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.599671265127867</v>
@@ -23992,7 +23884,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625242237611781</v>
+        <v>1.575514923591464</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.475010947987239</v>
@@ -24081,7 +23973,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618254757884106</v>
+        <v>1.569580927297637</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.635546493608265</v>
@@ -24170,7 +24062,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609187381164622</v>
+        <v>1.559779832604559</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.104423698553056</v>
@@ -24259,7 +24151,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.616144080495212</v>
+        <v>1.561445208299213</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.093659553280478</v>
@@ -24348,7 +24240,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.614190093270142</v>
+        <v>1.564495911539399</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.089409543320687</v>
@@ -24437,7 +24329,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622973605981129</v>
+        <v>1.572277079075852</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.881486462048886</v>
@@ -24526,7 +24418,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.62259682111034</v>
+        <v>1.57315091597748</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.19436548926365</v>
@@ -24615,7 +24507,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.630569209331233</v>
+        <v>1.577665540192328</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.274340265781113</v>
@@ -24704,7 +24596,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.634535057358826</v>
+        <v>1.581417535735881</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.001508446634856</v>
@@ -24793,7 +24685,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.650110592777729</v>
+        <v>1.596620857290951</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.881075275786376</v>
@@ -24882,7 +24774,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.661647619527968</v>
+        <v>1.610235747996781</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.010476550849486</v>
@@ -24971,7 +24863,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.663275730518621</v>
+        <v>1.615816212218331</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.916102190539313</v>
@@ -25060,7 +24952,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.674683375476844</v>
+        <v>1.623874555410123</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.069564646863962</v>
@@ -25149,7 +25041,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678725470378222</v>
+        <v>1.627212006367601</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.870044631087879</v>
@@ -25238,7 +25130,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68258116421194</v>
+        <v>1.62722127298037</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.864484927921647</v>
@@ -25327,7 +25219,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688611338213741</v>
+        <v>1.629884065935937</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.061969710421681</v>
@@ -25416,7 +25308,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.699271403752457</v>
+        <v>1.638308044548722</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.887919812133184</v>
@@ -25505,7 +25397,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.712182957456288</v>
+        <v>1.65362203916394</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.440800391014252</v>
@@ -25791,7 +25683,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.59226497369293</v>
+        <v>1.571775117185736</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.709798390397088</v>
@@ -25880,7 +25772,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552359944302842</v>
+        <v>1.537330502276122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.540878063943795</v>
@@ -25969,7 +25861,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544599238790644</v>
+        <v>1.526799633082193</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.545894045715572</v>
@@ -26058,7 +25950,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.541242842384104</v>
+        <v>1.520573744550733</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.516416299235746</v>
@@ -26147,7 +26039,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53911699570351</v>
+        <v>1.515317550927803</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.532319290747244</v>
@@ -26236,7 +26128,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53254494324455</v>
+        <v>1.504051288789291</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45526643320329</v>
@@ -26325,7 +26217,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.528540364107516</v>
+        <v>1.501455010278417</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.516013286637643</v>
@@ -26414,7 +26306,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.534443357763201</v>
+        <v>1.507236131747328</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.562871089116915</v>
@@ -26503,7 +26395,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529049147822366</v>
+        <v>1.501703821926426</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.430607013080672</v>
@@ -26592,7 +26484,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.445592324295188</v>
+        <v>1.434036739584976</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.987489066304216</v>
@@ -26681,7 +26573,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.442228927280414</v>
+        <v>1.43091246323097</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.993741041930674</v>
@@ -26770,7 +26662,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.446770467822235</v>
+        <v>1.432472900551606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.07099463684668</v>
@@ -26859,7 +26751,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.412970560571112</v>
+        <v>1.40205639347188</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.093855431017944</v>
@@ -26948,7 +26840,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.421281431697198</v>
+        <v>1.409154650215966</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.11097944509234</v>
@@ -27037,7 +26929,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.426411378566907</v>
+        <v>1.415225674767583</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.024505881882769</v>
@@ -27126,7 +27018,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.434909354341777</v>
+        <v>1.416478804430979</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.089425066869181</v>
@@ -27215,7 +27107,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.454233069420594</v>
+        <v>1.42859702264766</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.029322975116716</v>
@@ -27304,7 +27196,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.45519932409608</v>
+        <v>1.434711017645441</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.981987972916176</v>
@@ -27393,7 +27285,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.4595097735337</v>
+        <v>1.436387556588371</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.008579862731366</v>
@@ -27482,7 +27374,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.461425403288004</v>
+        <v>1.441022739132279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.042170679005246</v>
@@ -27571,7 +27463,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.461456726753441</v>
+        <v>1.440740027979776</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.998775153521894</v>
@@ -27660,7 +27552,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.473487956175732</v>
+        <v>1.452297819959767</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.026459081771882</v>
@@ -27749,7 +27641,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.468221735044173</v>
+        <v>1.448866376238864</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.027827499566953</v>
@@ -27838,7 +27730,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.480545849741622</v>
+        <v>1.454547206595642</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.831339352134965</v>
@@ -27927,7 +27819,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573522536490975</v>
+        <v>1.527037750022766</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.092981500016117</v>
@@ -28016,7 +27908,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587668397595252</v>
+        <v>1.533478064167852</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.157712758737254</v>
@@ -28105,7 +27997,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596161987363709</v>
+        <v>1.540548554099869</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.144304497695533</v>
@@ -28194,7 +28086,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.67300475750459</v>
+        <v>1.598344217952269</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.596476208252015</v>
@@ -28283,7 +28175,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671295022487355</v>
+        <v>1.60150618312661</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.460214066588315</v>
@@ -28372,7 +28264,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6692315765613</v>
+        <v>1.598580938372082</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.267049040070961</v>
@@ -28461,7 +28353,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.67795181314122</v>
+        <v>1.598230466672905</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.793110667483383</v>
@@ -28550,7 +28442,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.675055437280167</v>
+        <v>1.599018136567752</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.425233169817431</v>
@@ -28639,7 +28531,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670357293849395</v>
+        <v>1.585349262319977</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.548755970959397</v>
@@ -28728,7 +28620,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670126493546672</v>
+        <v>1.582404492890702</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.364397375800451</v>
@@ -28817,7 +28709,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.660989881361912</v>
+        <v>1.574059859832432</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.539353604919848</v>
@@ -28906,7 +28798,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.656208213316281</v>
+        <v>1.578571945388465</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.378535111687032</v>
@@ -28995,7 +28887,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.632798589686323</v>
+        <v>1.556385515280035</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.417306718505508</v>
@@ -29084,7 +28976,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622892330045122</v>
+        <v>1.547854443716461</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.363129435107692</v>
@@ -29173,7 +29065,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.618769784830431</v>
+        <v>1.543958442332021</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.42539825357901</v>
@@ -29262,7 +29154,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616717800045254</v>
+        <v>1.543368235565323</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.273970255451341</v>
@@ -29351,7 +29243,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.608413317259252</v>
+        <v>1.538705052433067</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.616547434392964</v>
@@ -29440,7 +29332,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.599205679777374</v>
+        <v>1.530485442686556</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.298882794631838</v>
@@ -29529,7 +29421,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.591579378596891</v>
+        <v>1.523263698905308</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.304090184801952</v>
@@ -29618,7 +29510,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590672350764438</v>
+        <v>1.516306905031052</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.086380663936368</v>
@@ -29707,7 +29599,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.581107444618956</v>
+        <v>1.509978103344442</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.547740305621626</v>
@@ -29796,7 +29688,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.573583542127803</v>
+        <v>1.50460113138008</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.086765838538814</v>
@@ -29885,7 +29777,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.586783035318341</v>
+        <v>1.51780300859106</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.30800503366212</v>
@@ -29974,7 +29866,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587420712865842</v>
+        <v>1.524180343042293</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.428879798420395</v>
@@ -30063,7 +29955,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597353329520795</v>
+        <v>1.535096645928197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.020812873069757</v>
@@ -30152,7 +30044,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.603383548289681</v>
+        <v>1.541364284190202</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.119673326445576</v>
@@ -30241,7 +30133,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609369710949119</v>
+        <v>1.540670125463652</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.4009818688802</v>
@@ -30330,7 +30222,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.622657284644548</v>
+        <v>1.554112125467154</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.034313437963812</v>
@@ -30419,7 +30311,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.637027309706738</v>
+        <v>1.567800635725195</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.986049384931599</v>
@@ -30508,7 +30400,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.642717112757953</v>
+        <v>1.575047023576701</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.858694934373599</v>
@@ -30597,7 +30489,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.645597463922823</v>
+        <v>1.575665879087187</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.076297738005719</v>
@@ -30686,7 +30578,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.660293947248102</v>
+        <v>1.5912550815216</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.143915026537034</v>
@@ -30775,7 +30667,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.655126519400401</v>
+        <v>1.591375278662421</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.935484586727954</v>
@@ -30864,7 +30756,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.662390597341782</v>
+        <v>1.595765341323815</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.235528378536515</v>
@@ -30953,7 +30845,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.674933609668619</v>
+        <v>1.608342098921591</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.219678551551683</v>
@@ -31042,7 +30934,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.692535573848653</v>
+        <v>1.623295007423192</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.95239411114866</v>
@@ -31131,7 +31023,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.697422205698749</v>
+        <v>1.631977318163901</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.486971297416142</v>
@@ -31417,7 +31309,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537484014593522</v>
+        <v>1.537708710779635</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.720416717401913</v>
@@ -31506,7 +31398,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524000455840422</v>
+        <v>1.526125169797532</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.687399127558058</v>
@@ -31595,7 +31487,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498192881174845</v>
+        <v>1.505337334576876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.595781395337071</v>
@@ -31684,7 +31576,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.47440769244393</v>
+        <v>1.48198039397029</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.624975107000358</v>
@@ -31773,7 +31665,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.48540615076705</v>
+        <v>1.490295614768892</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.661733395111061</v>
@@ -31862,7 +31754,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485961961121389</v>
+        <v>1.491479844791709</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.565588547436725</v>
@@ -31951,7 +31843,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.488875981185742</v>
+        <v>1.494863049248153</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.689743903237329</v>
@@ -32040,7 +31932,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.512531452329505</v>
+        <v>1.519790880878658</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.372601761483327</v>
@@ -32129,7 +32021,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.509558447966565</v>
+        <v>1.51744704813444</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.652175721931538</v>
@@ -32218,7 +32110,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.507171425718596</v>
+        <v>1.510887680043999</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.287703585558055</v>
@@ -32307,7 +32199,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501445810862344</v>
+        <v>1.505719570205226</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.648137922016724</v>
@@ -32396,7 +32288,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.486066824039928</v>
+        <v>1.492307619641563</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.398355511552898</v>
@@ -32485,7 +32377,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.471233876226214</v>
+        <v>1.47991459626562</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.610127879612202</v>
@@ -32574,7 +32466,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.475797749398764</v>
+        <v>1.482085108547332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.563702510474322</v>
@@ -32663,7 +32555,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.507018752670792</v>
+        <v>1.516782589225741</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.596350006619404</v>
@@ -32752,7 +32644,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.547443260836034</v>
+        <v>1.555037648440101</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.312512611962435</v>
@@ -32841,7 +32733,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.579679020204069</v>
+        <v>1.573142996691204</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.557134989823216</v>
@@ -32930,7 +32822,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598460151940871</v>
+        <v>1.596943195134879</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.385513905918176</v>
@@ -33019,7 +32911,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.638482378909816</v>
+        <v>1.634179198027577</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.849020358785235</v>
@@ -33108,7 +33000,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.642396809225374</v>
+        <v>1.642309880062228</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.61879345884777</v>
@@ -33197,7 +33089,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.643897898303119</v>
+        <v>1.642799329863389</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.42307787661902</v>
@@ -33286,7 +33178,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.654479464552699</v>
+        <v>1.648289445338203</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.832365891018826</v>
@@ -33375,7 +33267,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.649677331349204</v>
+        <v>1.646700223651407</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.626565676990877</v>
@@ -33464,7 +33356,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652965102237246</v>
+        <v>1.650139564821559</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.624021568290904</v>
@@ -33553,7 +33445,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657802192547496</v>
+        <v>1.656350624496045</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.42181151486358</v>
@@ -33642,7 +33534,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.674022923290517</v>
+        <v>1.668361045405166</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.884414992615197</v>
@@ -33731,7 +33623,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666222616533356</v>
+        <v>1.669107646989307</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.855743292531636</v>
@@ -33820,7 +33712,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.658723797863225</v>
+        <v>1.664090172863312</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.306314782275322</v>
@@ -33909,7 +33801,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652764177474059</v>
+        <v>1.658118012506888</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.369285838194097</v>
@@ -33998,7 +33890,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.64902843897992</v>
+        <v>1.648686132829161</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.270592579316284</v>
@@ -34087,7 +33979,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626859975518601</v>
+        <v>1.630360137981853</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.218011229585731</v>
@@ -34176,7 +34068,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.626611001484809</v>
+        <v>1.636251327808147</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.188074831337022</v>
@@ -34265,7 +34157,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605655531014031</v>
+        <v>1.614575441449307</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.811340980485767</v>
@@ -34354,7 +34246,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588859978914391</v>
+        <v>1.594615815270817</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.039572762771837</v>
@@ -34443,7 +34335,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.586964438233441</v>
+        <v>1.590788709260669</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.022805073958752</v>
@@ -34532,7 +34424,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.571911288672578</v>
+        <v>1.578422023665764</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.023031073114408</v>
@@ -34621,7 +34513,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.53480916380581</v>
+        <v>1.545520951403759</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.771663120030717</v>
@@ -34710,7 +34602,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.512142484088729</v>
+        <v>1.521568753387104</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.741193814179173</v>
@@ -34799,7 +34691,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.501612413710149</v>
+        <v>1.508290266568938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.752573491460396</v>
@@ -34888,7 +34780,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.495793485077327</v>
+        <v>1.498273154919376</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.710478242928866</v>
@@ -34977,7 +34869,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499224844968046</v>
+        <v>1.500336912292228</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.782858532693774</v>
@@ -35066,7 +34958,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.506166907854897</v>
+        <v>1.502025266975496</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.688150686594522</v>
@@ -35155,7 +35047,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.513747396600546</v>
+        <v>1.506802241856616</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.681653790615012</v>
@@ -35244,7 +35136,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.516805247865017</v>
+        <v>1.506029200622399</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.825541538416228</v>
@@ -35333,7 +35225,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.511294402061576</v>
+        <v>1.499669120691784</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.837484500283404</v>
@@ -35422,7 +35314,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.505214483626978</v>
+        <v>1.495688773991384</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.84486231115267</v>
@@ -35511,7 +35403,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.503430203561831</v>
+        <v>1.495444163940153</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.726042343866844</v>
@@ -35600,7 +35492,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502953990975167</v>
+        <v>1.494740999056773</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.704245967939823</v>
@@ -35689,7 +35581,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.506954960081329</v>
+        <v>1.504000597289538</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.779714812444645</v>
@@ -35778,7 +35670,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.513777981230368</v>
+        <v>1.510987769613033</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.774724307750361</v>
@@ -35867,7 +35759,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.523431057305574</v>
+        <v>1.515410628691037</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.476813265012964</v>
@@ -35956,7 +35848,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.555975520948575</v>
+        <v>1.547953084990055</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.802154380740582</v>
@@ -36045,7 +35937,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.573251233322122</v>
+        <v>1.567506895780785</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.925830755166102</v>
@@ -36134,7 +36026,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.547308318219714</v>
+        <v>1.545734295309429</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.104702588313651</v>
@@ -36223,7 +36115,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.537717165692011</v>
+        <v>1.539361331960323</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.637297632668884</v>
@@ -36312,7 +36204,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.53645515757824</v>
+        <v>1.542880948023336</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.8551925365501</v>
@@ -36401,7 +36293,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.512178665800487</v>
+        <v>1.520041576242207</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.68657728045243</v>
@@ -36490,7 +36382,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.51004934279171</v>
+        <v>1.510276629262543</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.571043847344806</v>
@@ -36579,7 +36471,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.514639371576068</v>
+        <v>1.518048868894938</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.440977115539464</v>
@@ -36668,7 +36560,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.521414944183074</v>
+        <v>1.5243624324862</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.73713389747912</v>
@@ -36757,7 +36649,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.535779816187304</v>
+        <v>1.533925029375516</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.572531778040148</v>
